--- a/CI103/L8/Burnout Chart Week 8.xlsx
+++ b/CI103/L8/Burnout Chart Week 8.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cartk\OneDrive\Documents\team47-drexel-18\CI103\L6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cartk\OneDrive\Documents\team47-drexel-18\CI103\L8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="102" documentId="8_{E1102082-E543-45EC-9CE3-C5CEA75DBCDC}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{69A205D6-CE37-4806-8E8F-E3F08EEBE19B}"/>
+  <xr:revisionPtr revIDLastSave="422" documentId="8_{E1102082-E543-45EC-9CE3-C5CEA75DBCDC}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{1FB354CB-329E-421F-9A25-5A13198A9EDA}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{F08542E7-D7E4-4A2D-B65D-AD7AFDB5C873}"/>
   </bookViews>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
-  <si>
-    <t>Phase 1</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>Estimated Hours</t>
   </si>
@@ -36,30 +33,12 @@
     <t>Actual Hours Week 4</t>
   </si>
   <si>
-    <t>Log-In/Registration</t>
-  </si>
-  <si>
     <t>Search UI</t>
   </si>
   <si>
-    <t>CRN Query to Classes DB</t>
-  </si>
-  <si>
-    <t>Class Addition DB Set-Up</t>
-  </si>
-  <si>
-    <t>Complete "Current User" Profile UI</t>
-  </si>
-  <si>
-    <t>Setup Email Verification</t>
-  </si>
-  <si>
     <t>Enable Logout</t>
   </si>
   <si>
-    <t>Create Function to Pull Profile</t>
-  </si>
-  <si>
     <t>Actual Hours Week 5</t>
   </si>
   <si>
@@ -69,28 +48,67 @@
     <t>Actual Hours Week 3</t>
   </si>
   <si>
-    <t>Class Roster Back End</t>
-  </si>
-  <si>
     <t>Actual Hours Week 6</t>
   </si>
   <si>
-    <t>Complete "Current User" Back End</t>
-  </si>
-  <si>
-    <t>Classes Display Back End</t>
-  </si>
-  <si>
-    <t>Classes Display UI</t>
-  </si>
-  <si>
-    <t>Front End "Clean-Up"</t>
-  </si>
-  <si>
-    <t>Finish "Other User" Profile</t>
-  </si>
-  <si>
     <t>Actual Hours Week 7</t>
+  </si>
+  <si>
+    <t>Actual Hours Week 8</t>
+  </si>
+  <si>
+    <t>Actual Hours Week 9</t>
+  </si>
+  <si>
+    <t>Actual Hours Week 10</t>
+  </si>
+  <si>
+    <t>Log-in</t>
+  </si>
+  <si>
+    <t>Registration</t>
+  </si>
+  <si>
+    <t>CRN Query</t>
+  </si>
+  <si>
+    <t>Unit Testing</t>
+  </si>
+  <si>
+    <t>Current User Profile UI</t>
+  </si>
+  <si>
+    <t>Add User to Class  Database</t>
+  </si>
+  <si>
+    <t>Email Verification</t>
+  </si>
+  <si>
+    <t>Obtain User Function</t>
+  </si>
+  <si>
+    <t>User Testing</t>
+  </si>
+  <si>
+    <t>Phase 1                &amp;                    Phase 2</t>
+  </si>
+  <si>
+    <t>Phase 1 PowerPoint</t>
+  </si>
+  <si>
+    <t>Ongoing Deliverables</t>
+  </si>
+  <si>
+    <t>View Class UI</t>
+  </si>
+  <si>
+    <t>Systems Documentation</t>
+  </si>
+  <si>
+    <t>Implement User Tesing Feedback</t>
+  </si>
+  <si>
+    <t>Final Powerpoint</t>
   </si>
 </sst>
 </file>
@@ -211,7 +229,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Burnout</a:t>
+              <a:t>Burndown</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
@@ -258,17 +276,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$16</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Actual Hours</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -283,26 +290,35 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$16:$G$16</c:f>
+              <c:f>Sheet1!$B$19:$J$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>56</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -311,24 +327,13 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-992A-4AB4-B164-890B2E1FC29E}"/>
+              <c16:uniqueId val="{00000000-C432-4D39-9696-D5E20282ACAD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$17</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Estimated Hours</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -343,26 +348,35 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$17:$G$17</c:f>
+              <c:f>Sheet1!$B$20:$J$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>56</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44.8</c:v>
+                  <c:v>73.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>33.599999999999994</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22.399999999999995</c:v>
+                  <c:v>52.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11.199999999999996</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>31.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -371,7 +385,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-992A-4AB4-B164-890B2E1FC29E}"/>
+              <c16:uniqueId val="{00000001-C432-4D39-9696-D5E20282ACAD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -384,17 +398,16 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="645591760"/>
-        <c:axId val="645593072"/>
+        <c:axId val="527804584"/>
+        <c:axId val="527803928"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="645591760"/>
+        <c:axId val="527804584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -431,7 +444,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="645593072"/>
+        <c:crossAx val="527803928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -439,7 +452,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="645593072"/>
+        <c:axId val="527803928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -490,7 +503,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="645591760"/>
+        <c:crossAx val="527804584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -502,39 +515,15 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -1130,23 +1119,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>335280</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>49530</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>232410</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C833F16-0E09-4DDF-8405-BACE1545B0C2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF61727B-C614-4570-8613-956D0F6BA6C6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1464,10 +1453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5A03273-383A-4577-B74D-3D75F761692B}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1479,406 +1468,661 @@
     <col min="6" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="1">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="B3" s="1">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1">
+        <v>4</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="B7" s="1">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2</v>
+      </c>
+      <c r="F7" s="1">
+        <v>2</v>
+      </c>
+      <c r="G7" s="2">
+        <v>2</v>
+      </c>
+      <c r="H7" s="2">
+        <v>2</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="1">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>4</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="1">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>4</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="1">
+        <v>2</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>2</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="5">
+        <v>2</v>
+      </c>
+      <c r="C11" s="5">
+        <v>0</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0</v>
+      </c>
+      <c r="E11" s="5">
+        <v>2</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="5">
+        <v>4</v>
+      </c>
+      <c r="C12" s="5">
+        <v>0</v>
+      </c>
+      <c r="D12" s="5">
+        <v>0</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0</v>
+      </c>
+      <c r="F12" s="5">
+        <v>4</v>
+      </c>
+      <c r="G12" s="2">
+        <v>4</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="5">
+        <v>10</v>
+      </c>
+      <c r="C13" s="5">
+        <v>2</v>
+      </c>
+      <c r="D13" s="5">
+        <v>0</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0</v>
+      </c>
+      <c r="F13" s="5">
+        <v>0</v>
+      </c>
+      <c r="G13" s="2">
+        <v>2</v>
+      </c>
+      <c r="H13" s="2">
+        <v>4</v>
+      </c>
+      <c r="I13" s="2">
+        <v>4</v>
+      </c>
+      <c r="J13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="2">
+        <v>2</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2">
+        <v>2</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0</v>
+      </c>
+      <c r="J14" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="2">
+        <v>20</v>
+      </c>
+      <c r="C15" s="2">
+        <v>2</v>
+      </c>
+      <c r="D15" s="2">
+        <v>2</v>
+      </c>
+      <c r="E15" s="2">
+        <v>2</v>
+      </c>
+      <c r="F15" s="2">
+        <v>2</v>
+      </c>
+      <c r="G15" s="2">
+        <v>2</v>
+      </c>
+      <c r="H15" s="2">
+        <v>2</v>
+      </c>
+      <c r="I15" s="2">
+        <v>2</v>
+      </c>
+      <c r="J15" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="2">
+        <v>4</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0</v>
+      </c>
+      <c r="H16" s="2">
+        <v>4</v>
+      </c>
+      <c r="I16" s="2">
+        <v>0</v>
+      </c>
+      <c r="J16" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="5">
+        <v>2</v>
+      </c>
+      <c r="C17" s="5">
+        <v>0</v>
+      </c>
+      <c r="D17" s="5">
+        <v>0</v>
+      </c>
+      <c r="E17" s="5">
+        <v>0</v>
+      </c>
+      <c r="F17" s="5">
+        <v>0</v>
+      </c>
+      <c r="G17" s="5">
+        <v>0</v>
+      </c>
+      <c r="H17" s="5">
+        <v>0</v>
+      </c>
+      <c r="I17" s="5">
+        <v>0</v>
+      </c>
+      <c r="J17" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="4">
+        <v>4</v>
+      </c>
+      <c r="C18" s="4">
+        <v>0</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0</v>
+      </c>
+      <c r="E18" s="4">
+        <v>0</v>
+      </c>
+      <c r="F18" s="4">
+        <v>0</v>
+      </c>
+      <c r="G18" s="4">
+        <v>0</v>
+      </c>
+      <c r="H18" s="4">
+        <v>0</v>
+      </c>
+      <c r="I18" s="4">
+        <v>4</v>
+      </c>
+      <c r="J18" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="2">
+        <f>SUM(C2:J18)</f>
+        <v>86</v>
+      </c>
+      <c r="C19" s="2">
+        <f>B19-SUM(C2:C18)</f>
+        <v>68</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" ref="D19:J19" si="0">C19-SUM(D2:D18)</f>
+        <v>59</v>
+      </c>
+      <c r="E19" s="2">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="F19" s="2">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="G19" s="2">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="H19" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="I19" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="2">
+        <f>SUM(B2:B18)</f>
+        <v>84</v>
+      </c>
+      <c r="C20" s="2">
+        <f>B20 - ( $B$20 / 8)</f>
+        <v>73.5</v>
+      </c>
+      <c r="D20" s="2">
+        <f>C20 - ( $B$20 / 8)</f>
+        <v>63</v>
+      </c>
+      <c r="E20" s="2">
+        <f t="shared" ref="E20:J20" si="1">D20 - ( $B$20 / 8)</f>
+        <v>52.5</v>
+      </c>
+      <c r="F20" s="2">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="G20" s="2">
+        <f t="shared" si="1"/>
+        <v>31.5</v>
+      </c>
+      <c r="H20" s="2">
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1">
-        <v>10</v>
-      </c>
-      <c r="C2" s="1">
-        <v>6</v>
-      </c>
-      <c r="D2" s="1">
-        <v>4</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0</v>
-      </c>
-      <c r="G2" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1">
-        <v>10</v>
-      </c>
-      <c r="C3" s="1">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
-      <c r="G3" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="1">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1">
-        <v>3</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="1">
-        <v>10</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0</v>
-      </c>
-      <c r="D6" s="1">
-        <v>8</v>
-      </c>
-      <c r="E6" s="1">
-        <v>2</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
-      <c r="G6" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="1">
-        <v>2</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1</v>
-      </c>
-      <c r="E7" s="1">
-        <v>1</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0</v>
-      </c>
-      <c r="G7" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="1">
-        <v>2</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0</v>
-      </c>
-      <c r="D8" s="1">
-        <v>2</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0</v>
-      </c>
-      <c r="G8" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="1">
-        <v>1</v>
-      </c>
-      <c r="C9" s="1">
-        <v>0</v>
-      </c>
-      <c r="D9" s="1">
-        <v>1</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0</v>
-      </c>
-      <c r="G9" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="1">
-        <v>2</v>
-      </c>
-      <c r="C10" s="1">
-        <v>0</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0</v>
-      </c>
-      <c r="E10" s="1">
-        <v>2</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0</v>
-      </c>
-      <c r="G10" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="5">
-        <v>5</v>
-      </c>
-      <c r="C11" s="5">
-        <v>0</v>
-      </c>
-      <c r="D11" s="5">
-        <v>0</v>
-      </c>
-      <c r="E11" s="5">
-        <v>3</v>
-      </c>
-      <c r="F11" s="5">
-        <v>0</v>
-      </c>
-      <c r="G11" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="5">
-        <v>2</v>
-      </c>
-      <c r="C12" s="5">
-        <v>0</v>
-      </c>
-      <c r="D12" s="5">
-        <v>0</v>
-      </c>
-      <c r="E12" s="5">
-        <v>2</v>
-      </c>
-      <c r="F12" s="5">
-        <v>0</v>
-      </c>
-      <c r="G12" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="2">
-        <v>2</v>
-      </c>
-      <c r="C13" s="2">
-        <v>0</v>
-      </c>
-      <c r="D13" s="2">
-        <v>0</v>
-      </c>
-      <c r="E13" s="2">
-        <v>2</v>
-      </c>
-      <c r="F13" s="2">
-        <v>0</v>
-      </c>
-      <c r="G13" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="2">
-        <v>4</v>
-      </c>
-      <c r="C14" s="2">
-        <v>0</v>
-      </c>
-      <c r="D14" s="2">
-        <v>0</v>
-      </c>
-      <c r="E14" s="2">
-        <v>0</v>
-      </c>
-      <c r="F14" s="2">
-        <v>4</v>
-      </c>
-      <c r="G14" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="4">
-        <v>3</v>
-      </c>
-      <c r="C15" s="4">
-        <v>0</v>
-      </c>
-      <c r="D15" s="4">
-        <v>0</v>
-      </c>
-      <c r="E15" s="4">
-        <v>0</v>
-      </c>
-      <c r="F15" s="4">
-        <v>3</v>
-      </c>
-      <c r="G15" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="2">
-        <f>SUM(B2:B15)</f>
-        <v>56</v>
-      </c>
-      <c r="C16" s="2">
-        <f>SUM(C2:C15)</f>
-        <v>18</v>
-      </c>
-      <c r="D16" s="2">
-        <f>SUM(D2:D15)</f>
-        <v>16</v>
-      </c>
-      <c r="E16" s="2">
-        <f>SUM(E2:E15)</f>
-        <v>12</v>
-      </c>
-      <c r="F16" s="2">
-        <f>SUM(F2:F15)</f>
-        <v>7</v>
-      </c>
-      <c r="G16" s="2">
-        <f>SUM(G2:G15)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B17" s="2">
-        <f>B16</f>
-        <v>56</v>
-      </c>
-      <c r="C17" s="2">
-        <f>B17 - ( $B$16 / 5)</f>
-        <v>44.8</v>
-      </c>
-      <c r="D17" s="2">
-        <f>C17 - ( $B$16 / 5)</f>
-        <v>33.599999999999994</v>
-      </c>
-      <c r="E17" s="2">
-        <f>D17 - ( $B$16 / 5)</f>
-        <v>22.399999999999995</v>
-      </c>
-      <c r="F17" s="2">
-        <f>E17 - ( $B$16 / 5)</f>
-        <v>11.199999999999996</v>
-      </c>
-      <c r="G17" s="2">
-        <f>F17 - ( $B$16 / 5)</f>
+      <c r="I20" s="2">
+        <f t="shared" si="1"/>
+        <v>10.5</v>
+      </c>
+      <c r="J20" s="2">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>

--- a/CI103/L8/Burnout Chart Week 8.xlsx
+++ b/CI103/L8/Burnout Chart Week 8.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cartk\OneDrive\Documents\team47-drexel-18\CI103\L8\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TriLe\Bitbucket\team47-drexel-18\CI103\L8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="422" documentId="8_{E1102082-E543-45EC-9CE3-C5CEA75DBCDC}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{1FB354CB-329E-421F-9A25-5A13198A9EDA}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AA1D203-4CEA-4596-B3A4-F5914029C286}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{F08542E7-D7E4-4A2D-B65D-AD7AFDB5C873}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9070" xr2:uid="{F08542E7-D7E4-4A2D-B65D-AD7AFDB5C873}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1455,20 +1455,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5A03273-383A-4577-B74D-3D75F761692B}">
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.77734375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="10.88671875" style="2" customWidth="1"/>
-    <col min="4" max="5" width="12.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="14.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.81640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.90625" style="2" customWidth="1"/>
+    <col min="4" max="5" width="12.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.90625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
@@ -1500,7 +1500,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
@@ -1564,7 +1564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
@@ -1628,7 +1628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -1660,7 +1660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
@@ -1692,7 +1692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
@@ -1724,7 +1724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
@@ -1756,7 +1756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
@@ -1820,7 +1820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>24</v>
       </c>
@@ -1852,7 +1852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>20</v>
       </c>
@@ -1884,7 +1884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
@@ -1916,7 +1916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
@@ -1948,7 +1948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
@@ -1980,7 +1980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
@@ -2012,7 +2012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
@@ -2044,7 +2044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>5</v>
       </c>
@@ -2085,7 +2085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>0</v>
       </c>
